--- a/app/config/tables/colombia_registration/forms/colombia_registration/colombia_registration.xlsx
+++ b/app/config/tables/colombia_registration/forms/colombia_registration/colombia_registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="16230" tabRatio="989" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="16230" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -343,9 +343,6 @@
     <t>colombia_registration</t>
   </si>
   <si>
-    <t>Registration</t>
-  </si>
-  <si>
     <t>rc_id</t>
   </si>
   <si>
@@ -395,6 +392,9 @@
   rcId += bPlace.slice(0, 1).toUpperCase();
   return rcId;
 })()</t>
+  </si>
+  <si>
+    <t>Registration Form</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1192,7 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K13" s="1" t="b">
         <f>TRUE()</f>
@@ -1251,10 +1251,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="K17" s="1" t="b">
         <f>TRUE()</f>
@@ -1276,11 +1276,11 @@
         <v>11</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="34"/>
       <c r="G19" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1288,10 +1288,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1503,7 +1503,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -1533,7 +1533,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1666,7 +1666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/colombia_registration/forms/colombia_registration/colombia_registration.xlsx
+++ b/app/config/tables/colombia_registration/forms/colombia_registration/colombia_registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="16230" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="16230" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="260">
   <si>
     <t>clause</t>
   </si>
@@ -82,51 +82,15 @@
     <t>string</t>
   </si>
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>What is your first name?</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>What is your last Name?</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>first_last_name</t>
-  </si>
-  <si>
-    <t>data('first_name') + " " + data('last_name')</t>
-  </si>
-  <si>
     <t>end screen</t>
   </si>
   <si>
     <t>select_one</t>
   </si>
   <si>
-    <t>id_type</t>
-  </si>
-  <si>
-    <t>What type of ID do you have?</t>
-  </si>
-  <si>
-    <t>id_types_list</t>
-  </si>
-  <si>
     <t>id_number</t>
   </si>
   <si>
-    <t>What is your ID number?</t>
-  </si>
-  <si>
     <t>async_assign_single_string</t>
   </si>
   <si>
@@ -136,27 +100,15 @@
     <t>birth_date</t>
   </si>
   <si>
-    <t>What is your date of birth?</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
-    <t>What is your gender?</t>
-  </si>
-  <si>
     <t>genders</t>
   </si>
   <si>
-    <t>yes_no</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
-    <t>calculates.age()</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
@@ -178,9 +130,6 @@
     <t>survey</t>
   </si>
   <si>
-    <t>instance_name</t>
-  </si>
-  <si>
     <t>isSessionVariable</t>
   </si>
   <si>
@@ -196,24 +145,6 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Registration Number</t>
-  </si>
-  <si>
-    <t>Case Number</t>
-  </si>
-  <si>
-    <t>Asylum Card</t>
-  </si>
-  <si>
-    <t>Police Notes</t>
-  </si>
-  <si>
     <t>calculation_name</t>
   </si>
   <si>
@@ -322,24 +253,6 @@
     <t>female</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>registration_number</t>
-  </si>
-  <si>
-    <t>case_number</t>
-  </si>
-  <si>
-    <t>asylum _card</t>
-  </si>
-  <si>
-    <t>police _notes</t>
-  </si>
-  <si>
     <t>colombia_registration</t>
   </si>
   <si>
@@ -356,12 +269,6 @@
   </si>
   <si>
     <t>birth_place</t>
-  </si>
-  <si>
-    <t>What is the city or town or village of your birth?</t>
-  </si>
-  <si>
-    <t>Verify that the generated code is correct.</t>
   </si>
   <si>
     <t>(function() {
@@ -396,12 +303,556 @@
   <si>
     <t>Registration Form</t>
   </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>Department:</t>
+  </si>
+  <si>
+    <t>Departamento:</t>
+  </si>
+  <si>
+    <t>departments</t>
+  </si>
+  <si>
+    <t>Please enter the department</t>
+  </si>
+  <si>
+    <t>Por favor, introduzca el Departamento</t>
+  </si>
+  <si>
+    <t>pam</t>
+  </si>
+  <si>
+    <t>Point of Attention to Migrants:</t>
+  </si>
+  <si>
+    <t>Punto de Atención a Migrantes:</t>
+  </si>
+  <si>
+    <t>PAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter the Point of Attention to Migrants: </t>
+  </si>
+  <si>
+    <t>Por favor, introduzca el Punto de Atención a Migrantes</t>
+  </si>
+  <si>
+    <t>choice_item.filter_value === data('department')</t>
+  </si>
+  <si>
+    <t>country_of_intervention</t>
+  </si>
+  <si>
+    <t>registration_date</t>
+  </si>
+  <si>
+    <t>display.prompt.text.es</t>
+  </si>
+  <si>
+    <t>display.hint.text.es</t>
+  </si>
+  <si>
+    <t>display.required_message.text</t>
+  </si>
+  <si>
+    <t>display.required_message.text.es</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text.es</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>Date of Birth:</t>
+  </si>
+  <si>
+    <t>Gender:</t>
+  </si>
+  <si>
+    <t>ID number:</t>
+  </si>
+  <si>
+    <t>"Colombia"</t>
+  </si>
+  <si>
+    <t>(data('registration_date') !== null &amp;&amp; data('registration_date') !== undefined) ? data('registration_date') : new Date()</t>
+  </si>
+  <si>
+    <t>Sexo:</t>
+  </si>
+  <si>
+    <t>Por favor, introduzca el sexo</t>
+  </si>
+  <si>
+    <t>Please enter gender:</t>
+  </si>
+  <si>
+    <t>Código único:</t>
+  </si>
+  <si>
+    <t>Unique Code:</t>
+  </si>
+  <si>
+    <t>Birthplace (City/Town/Village):</t>
+  </si>
+  <si>
+    <t>Please enter date of birth:</t>
+  </si>
+  <si>
+    <t>Please enter id number</t>
+  </si>
+  <si>
+    <t>Id number must have 5 or more digits</t>
+  </si>
+  <si>
+    <t>Please enter birthplace:</t>
+  </si>
+  <si>
+    <t>Antioquia</t>
+  </si>
+  <si>
+    <t>Arauca</t>
+  </si>
+  <si>
+    <t>Atlantico</t>
+  </si>
+  <si>
+    <t>Atlántico</t>
+  </si>
+  <si>
+    <t>Bolivar</t>
+  </si>
+  <si>
+    <t>Bolívar</t>
+  </si>
+  <si>
+    <t>Boyaca</t>
+  </si>
+  <si>
+    <t>Boyacá</t>
+  </si>
+  <si>
+    <t>Casanare</t>
+  </si>
+  <si>
+    <t>Cauca</t>
+  </si>
+  <si>
+    <t>Bogota,_D.C.</t>
+  </si>
+  <si>
+    <t>Bogotá, D.C.</t>
+  </si>
+  <si>
+    <t>Cundinamarca</t>
+  </si>
+  <si>
+    <t>Guainia</t>
+  </si>
+  <si>
+    <t>Guainía</t>
+  </si>
+  <si>
+    <t>La_Guajira</t>
+  </si>
+  <si>
+    <t>La Guajira</t>
+  </si>
+  <si>
+    <t>Magdalena</t>
+  </si>
+  <si>
+    <t>Nariño</t>
+  </si>
+  <si>
+    <t>Norte_De_Santander</t>
+  </si>
+  <si>
+    <t>Norte De Santander</t>
+  </si>
+  <si>
+    <t>Putumayo</t>
+  </si>
+  <si>
+    <t>Quindio</t>
+  </si>
+  <si>
+    <t>Quindío</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Valle_Del_Cauca</t>
+  </si>
+  <si>
+    <t>Valle Del Cauca</t>
+  </si>
+  <si>
+    <t>Vichada</t>
+  </si>
+  <si>
+    <t>display.title.text.es</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>filter_value</t>
+  </si>
+  <si>
+    <t>Apartado_Fijo</t>
+  </si>
+  <si>
+    <t>Apartadó Fijo</t>
+  </si>
+  <si>
+    <t>Medellin_Fijo</t>
+  </si>
+  <si>
+    <t>Medellín Fijo</t>
+  </si>
+  <si>
+    <t>Medellin_Movil</t>
+  </si>
+  <si>
+    <t>Medellín Móvil</t>
+  </si>
+  <si>
+    <t>Arauca_Fijo</t>
+  </si>
+  <si>
+    <t>Arauca Fijo</t>
+  </si>
+  <si>
+    <t>Arauca_Movil</t>
+  </si>
+  <si>
+    <t>Arauca Móvil</t>
+  </si>
+  <si>
+    <t>Saravena_Fijo</t>
+  </si>
+  <si>
+    <t>Saravena Fijo</t>
+  </si>
+  <si>
+    <t>Saravena_Movil</t>
+  </si>
+  <si>
+    <t>Saravena Móvil</t>
+  </si>
+  <si>
+    <t>Barranquilla__Fijo</t>
+  </si>
+  <si>
+    <t>Barranquilla  Fijo</t>
+  </si>
+  <si>
+    <t>Barranquilla_Movil</t>
+  </si>
+  <si>
+    <t>Barranquilla Móvil</t>
+  </si>
+  <si>
+    <t>Cartagena_Movil</t>
+  </si>
+  <si>
+    <t>Cartagena Móvil</t>
+  </si>
+  <si>
+    <t>Tunja_Fijo</t>
+  </si>
+  <si>
+    <t>Tunja Fijo</t>
+  </si>
+  <si>
+    <t>Tunja_Movil</t>
+  </si>
+  <si>
+    <t>Tunja Móvil</t>
+  </si>
+  <si>
+    <t>Yopal_Movil</t>
+  </si>
+  <si>
+    <t>Yopal Móvil</t>
+  </si>
+  <si>
+    <t>El_Bordo_Fijo</t>
+  </si>
+  <si>
+    <t>El Bordo Fijo</t>
+  </si>
+  <si>
+    <t>Rosas_Fijo</t>
+  </si>
+  <si>
+    <t>Rosas Fijo</t>
+  </si>
+  <si>
+    <t>Bogota_CIAM</t>
+  </si>
+  <si>
+    <t>Bogotá CIAM</t>
+  </si>
+  <si>
+    <t>Bogota_Movil</t>
+  </si>
+  <si>
+    <t>Bogotá Móvil</t>
+  </si>
+  <si>
+    <t>Bogota_Super_Cade</t>
+  </si>
+  <si>
+    <t>Bogotá Super Cade</t>
+  </si>
+  <si>
+    <t>Soacha_Fijo</t>
+  </si>
+  <si>
+    <t>Soacha Fijo</t>
+  </si>
+  <si>
+    <t>Puerto_Inirida_Fijo</t>
+  </si>
+  <si>
+    <t>Puerto Inírida Fijo</t>
+  </si>
+  <si>
+    <t>Puerto_Inirida_Movil</t>
+  </si>
+  <si>
+    <t>Puerto Inírida Móvil</t>
+  </si>
+  <si>
+    <t>Maicao_CAI</t>
+  </si>
+  <si>
+    <t>Maicao CAI</t>
+  </si>
+  <si>
+    <t>Maicao_Fijo</t>
+  </si>
+  <si>
+    <t>Maicao Fijo</t>
+  </si>
+  <si>
+    <t>Maicao_Movil</t>
+  </si>
+  <si>
+    <t>Maicao Móvil</t>
+  </si>
+  <si>
+    <t>Paraguachon_Fijo</t>
+  </si>
+  <si>
+    <t>Paraguachón Fijo</t>
+  </si>
+  <si>
+    <t>Riohacha_IPS</t>
+  </si>
+  <si>
+    <t>Riohacha IPS</t>
+  </si>
+  <si>
+    <t>Riohacha_Movil</t>
+  </si>
+  <si>
+    <t>Riohacha Móvil</t>
+  </si>
+  <si>
+    <t>Santa_Marta_Movil</t>
+  </si>
+  <si>
+    <t>Santa Marta Móvil</t>
+  </si>
+  <si>
+    <t>Ipiales_Fijo</t>
+  </si>
+  <si>
+    <t>Ipiales Fijo</t>
+  </si>
+  <si>
+    <t>Ipiales_Movil</t>
+  </si>
+  <si>
+    <t>Ipiales Móvil</t>
+  </si>
+  <si>
+    <t>Rumichaca_Fijo</t>
+  </si>
+  <si>
+    <t>Rumichaca Fijo</t>
+  </si>
+  <si>
+    <t>Catatumbo_Movil</t>
+  </si>
+  <si>
+    <t>Catatumbo Móvil</t>
+  </si>
+  <si>
+    <t>Cucuta__Movil_Comuna</t>
+  </si>
+  <si>
+    <t>Cúcuta  Móvil Comuna</t>
+  </si>
+  <si>
+    <t>Cucuta_IPS</t>
+  </si>
+  <si>
+    <t>Cúcuta IPS</t>
+  </si>
+  <si>
+    <t>Cucuta_Movil_Escobal</t>
+  </si>
+  <si>
+    <t>Cúcuta Móvil Escobal</t>
+  </si>
+  <si>
+    <t>Cucuta_Movil_Puente_Fco._Paula</t>
+  </si>
+  <si>
+    <t>Cúcuta Móvil Puente Fco. Paula</t>
+  </si>
+  <si>
+    <t>La_Viuda_Fijo</t>
+  </si>
+  <si>
+    <t>La Viuda Fijo</t>
+  </si>
+  <si>
+    <t>Laguna_Fijo</t>
+  </si>
+  <si>
+    <t>Laguna Fijo</t>
+  </si>
+  <si>
+    <t>Montebello_Fijo</t>
+  </si>
+  <si>
+    <t>Montebello Fijo</t>
+  </si>
+  <si>
+    <t>Montebello_Movil_Monarca</t>
+  </si>
+  <si>
+    <t>Montebello Móvil Monarca</t>
+  </si>
+  <si>
+    <t>Pamplona_Fijo</t>
+  </si>
+  <si>
+    <t>Pamplona Fijo</t>
+  </si>
+  <si>
+    <t>Villa_Del_Rosario_CENAF</t>
+  </si>
+  <si>
+    <t>Villa Del Rosario CENAF</t>
+  </si>
+  <si>
+    <t>Las_Margaritas</t>
+  </si>
+  <si>
+    <t>Las Margaritas</t>
+  </si>
+  <si>
+    <t>La_Hormiga_Fijo</t>
+  </si>
+  <si>
+    <t>La Hormiga Fijo</t>
+  </si>
+  <si>
+    <t>La_Hormiga_Movil</t>
+  </si>
+  <si>
+    <t>La Hormiga Móvil</t>
+  </si>
+  <si>
+    <t>Puerto_Asis_Movil</t>
+  </si>
+  <si>
+    <t>Puerto Asis Móvil</t>
+  </si>
+  <si>
+    <t>Calarca_Fijo</t>
+  </si>
+  <si>
+    <t>Calarcá Fijo</t>
+  </si>
+  <si>
+    <t>Barrancabermeja__Fijo</t>
+  </si>
+  <si>
+    <t>Barrancabermeja  Fijo</t>
+  </si>
+  <si>
+    <t>Bucaramanga_Fijo_CASA</t>
+  </si>
+  <si>
+    <t>Bucaramanga Fijo CASA</t>
+  </si>
+  <si>
+    <t>Bucaramanga_Movil</t>
+  </si>
+  <si>
+    <t>Bucaramanga Móvil</t>
+  </si>
+  <si>
+    <t>Cali_Movil</t>
+  </si>
+  <si>
+    <t>Cali Móvil</t>
+  </si>
+  <si>
+    <t>Puerto_Carreño_Movil</t>
+  </si>
+  <si>
+    <t>Puerto Carreño Móvil</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Inglés</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -431,8 +882,27 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,8 +945,26 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -536,11 +1024,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -548,14 +1060,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -583,11 +1089,105 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,437 +1537,703 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.08203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="37.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1"/>
+    <col min="6" max="8" width="35.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="44" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="47.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="54.08203125" customWidth="1"/>
+    <col min="15" max="15" width="46.25" customWidth="1"/>
+    <col min="16" max="16" width="24.6640625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="18" max="18" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="26" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="P1" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B2"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2"/>
-      <c r="K2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:18" s="26" customFormat="1" ht="117.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+    </row>
+    <row r="4" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3"/>
-      <c r="K3" s="1" t="b">
+      <c r="D4" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4"/>
-      <c r="K4" s="1" t="b">
+      <c r="M4" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+    </row>
+    <row r="6" spans="1:18" s="26" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+      <c r="M6" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="45"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+    </row>
+    <row r="8" spans="1:18" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6" s="12"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="K6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7"/>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8"/>
-      <c r="K8" s="1" t="b">
+      <c r="F8" s="42"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9"/>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="1" t="b">
+      <c r="M9" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10" s="12"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="K10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+      <c r="M10" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="26" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="50"/>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:18" s="26" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="K11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12"/>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12"/>
-      <c r="K12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="2" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="50"/>
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:18" s="26" customFormat="1" ht="70.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="1" t="b">
+      <c r="D13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="50"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="1" t="b">
+      <c r="M13" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="26" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="50"/>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="1:18" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="51"/>
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:18" s="26" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="27"/>
+      <c r="C16" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15" s="12"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="K15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="H16"/>
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17"/>
-      <c r="C17" s="2" t="s">
+      <c r="M16" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="27"/>
+      <c r="C18" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19"/>
-      <c r="C19" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="G19" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D19" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+    </row>
+    <row r="24" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="23" style="18" customWidth="1"/>
+    <col min="1" max="1" width="22.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23" style="12" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>100</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="18">
-        <v>20190604</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="12">
+        <v>20190607</v>
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>100</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="17" t="s">
-        <v>45</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>20</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -1378,163 +2244,165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="26.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="51.25" style="3" customWidth="1"/>
-    <col min="3" max="9" width="8.75" style="1"/>
+    <col min="3" max="3" width="28.75" style="1" customWidth="1"/>
+    <col min="4" max="9" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C2"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C3"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C4"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="C5"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C6"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>76</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1544,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1555,106 +2423,1219 @@
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="22.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>94</v>
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>95</v>
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" t="s">
+        <v>213</v>
+      </c>
+      <c r="E57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" t="s">
+        <v>215</v>
+      </c>
+      <c r="E58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" t="s">
+        <v>217</v>
+      </c>
+      <c r="D59" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" t="s">
+        <v>221</v>
+      </c>
+      <c r="E61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" t="s">
+        <v>223</v>
+      </c>
+      <c r="D62" t="s">
+        <v>223</v>
+      </c>
+      <c r="E62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" t="s">
+        <v>229</v>
+      </c>
+      <c r="D65" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" t="s">
+        <v>231</v>
+      </c>
+      <c r="E66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" t="s">
+        <v>235</v>
+      </c>
+      <c r="D68" t="s">
+        <v>235</v>
+      </c>
+      <c r="E68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" t="s">
+        <v>237</v>
+      </c>
+      <c r="E69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" t="s">
+        <v>239</v>
+      </c>
+      <c r="D70" t="s">
+        <v>239</v>
+      </c>
+      <c r="E70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" t="s">
+        <v>241</v>
+      </c>
+      <c r="D71" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>244</v>
+      </c>
+      <c r="C73" t="s">
+        <v>245</v>
+      </c>
+      <c r="D73" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>246</v>
+      </c>
+      <c r="C74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D74" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" t="s">
+        <v>251</v>
+      </c>
+      <c r="D76" t="s">
+        <v>251</v>
+      </c>
+      <c r="E76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="C78" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="E78" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1667,7 +3648,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1676,27 +3657,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>59</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>108</v>
+        <v>74</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1716,54 +3697,54 @@
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="A1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>66</v>
+      <c r="E2" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>69</v>
+        <v>45</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1791,32 +3772,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>78</v>
+      <c r="A1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1840,66 +3821,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>81</v>
+      <c r="A2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>81</v>
+      <c r="A3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>81</v>
+      <c r="A4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>81</v>
+      <c r="A5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>81</v>
+      <c r="A6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>81</v>
+      <c r="A7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1925,34 +3906,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>88</v>
+      <c r="C1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26" t="s">
-        <v>91</v>
+      <c r="A3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/colombia_registration/forms/colombia_registration/colombia_registration.xlsx
+++ b/app/config/tables/colombia_registration/forms/colombia_registration/colombia_registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="16230" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="16230" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1539,7 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2156,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -2192,7 +2192,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="12">
-        <v>20190607</v>
+        <v>20190609</v>
       </c>
       <c r="C3"/>
     </row>

--- a/app/config/tables/colombia_registration/forms/colombia_registration/colombia_registration.xlsx
+++ b/app/config/tables/colombia_registration/forms/colombia_registration/colombia_registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="16230" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="16230" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="251">
   <si>
     <t>clause</t>
   </si>
@@ -307,40 +307,13 @@
     <t>department</t>
   </si>
   <si>
-    <t>Department:</t>
-  </si>
-  <si>
-    <t>Departamento:</t>
-  </si>
-  <si>
     <t>departments</t>
   </si>
   <si>
-    <t>Please enter the department</t>
-  </si>
-  <si>
-    <t>Por favor, introduzca el Departamento</t>
-  </si>
-  <si>
     <t>pam</t>
   </si>
   <si>
-    <t>Point of Attention to Migrants:</t>
-  </si>
-  <si>
-    <t>Punto de Atención a Migrantes:</t>
-  </si>
-  <si>
     <t>PAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter the Point of Attention to Migrants: </t>
-  </si>
-  <si>
-    <t>Por favor, introduzca el Punto de Atención a Migrantes</t>
-  </si>
-  <si>
-    <t>choice_item.filter_value === data('department')</t>
   </si>
   <si>
     <t>country_of_intervention</t>
@@ -964,7 +937,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1024,35 +997,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1131,9 +1080,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1143,9 +1089,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1153,12 +1096,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -1583,10 +1520,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>6</v>
@@ -1601,22 +1538,22 @@
         <v>10</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="O1" s="35" t="s">
         <v>8</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -1625,14 +1562,14 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="54" t="s">
-        <v>104</v>
+      <c r="I2" s="50" t="s">
+        <v>95</v>
       </c>
       <c r="J2"/>
       <c r="M2"/>
@@ -1642,16 +1579,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" s="45"/>
+        <v>84</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="43"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
@@ -1659,285 +1596,263 @@
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
     </row>
-    <row r="4" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40" t="s">
-        <v>81</v>
-      </c>
+    <row r="4" spans="1:18" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="27" t="s">
-        <v>82</v>
-      </c>
+      <c r="I4" s="46"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="27" t="b">
+    </row>
+    <row r="5" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M4" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
-    </row>
-    <row r="6" spans="1:18" s="26" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="46" t="s">
+      <c r="M5" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45" t="s">
-        <v>88</v>
+      <c r="D6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="26" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="45"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-    </row>
-    <row r="8" spans="1:18" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="41"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="46"/>
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="1:18" s="26" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="27"/>
+      <c r="I8" s="46"/>
       <c r="K8" s="27"/>
     </row>
-    <row r="9" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" s="26" customFormat="1" ht="70.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="42"/>
+        <v>16</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="41"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="27"/>
+      <c r="I9" s="46"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="26" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="46"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:18" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="47"/>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:18" s="26" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="27"/>
+      <c r="C12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="26" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="50"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="1:18" s="26" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
-      <c r="I12" s="50"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="27"/>
       <c r="K12" s="27"/>
-    </row>
-    <row r="13" spans="1:18" s="26" customFormat="1" ht="70.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="42"/>
+      <c r="L12" s="27" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="27"/>
-      <c r="L13" s="27" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="26" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="42"/>
+    </row>
+    <row r="14" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="27"/>
+      <c r="C14" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="27"/>
       <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:18" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="27" t="s">
-        <v>12</v>
-      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="27"/>
       <c r="B15" s="27"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="27"/>
-    </row>
-    <row r="16" spans="1:18" s="26" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="27"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>111</v>
-      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
-      <c r="I16" s="51"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
-      <c r="L16" s="27" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="27"/>
       <c r="B17" s="27"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="27"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="53"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
-      <c r="I18" s="39" t="s">
-        <v>73</v>
-      </c>
+      <c r="I18" s="39"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
@@ -1946,19 +1861,11 @@
     <row r="19" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>110</v>
-      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="39" t="s">
-        <v>109</v>
-      </c>
+      <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="27"/>
@@ -2086,66 +1993,6 @@
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
     </row>
-    <row r="28" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-    </row>
-    <row r="29" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-    </row>
-    <row r="30" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-    </row>
-    <row r="31" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2156,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2216,24 +2063,24 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>256</v>
+        <v>246</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2246,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -2255,7 +2102,8 @@
     <col min="1" max="1" width="26.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="51.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="28.75" style="1" customWidth="1"/>
-    <col min="4" max="9" width="8.75" style="1"/>
+    <col min="4" max="4" width="18.1640625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2268,7 +2116,9 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
@@ -2280,10 +2130,12 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C2"/>
-      <c r="D2" s="16"/>
+      <c r="D2" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -2298,7 +2150,9 @@
         <v>79</v>
       </c>
       <c r="C3"/>
-      <c r="D3" s="16"/>
+      <c r="D3" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -2310,10 +2164,12 @@
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C4"/>
-      <c r="D4" s="16"/>
+      <c r="D4" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -2325,10 +2181,12 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2343,7 +2201,9 @@
         <v>19</v>
       </c>
       <c r="C6"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -2358,7 +2218,9 @@
         <v>20</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -2399,6 +2261,9 @@
       </c>
       <c r="B10" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.55000000000000004">
@@ -2438,10 +2303,10 @@
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2454,8 +2319,8 @@
       <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>146</v>
+      <c r="D2" s="53" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2468,1174 +2333,1174 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>145</v>
+      <c r="D3" s="53" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D50" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D51" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E51" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E52" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D53" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D54" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E54" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C57" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D57" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E58" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C61" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D61" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E61" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D62" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E62" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C63" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D63" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E63" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C64" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D65" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E65" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D66" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E67" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D68" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C70" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D71" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E71" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D72" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E72" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C73" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D73" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E73" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C74" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D74" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E74" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D75" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>252</v>
-      </c>
-      <c r="B78" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="C78" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="D78" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="E78" s="58"/>
+        <v>243</v>
+      </c>
+      <c r="B78" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C78" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="D78" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="E78" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/app/config/tables/colombia_registration/forms/colombia_registration/colombia_registration.xlsx
+++ b/app/config/tables/colombia_registration/forms/colombia_registration/colombia_registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="16230" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="16230" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="252">
   <si>
     <t>clause</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>birthdate</t>
   </si>
 </sst>
 </file>
@@ -1476,16 +1479,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.08203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="37.5" style="4" customWidth="1"/>
     <col min="6" max="8" width="35.25" style="5" customWidth="1"/>
     <col min="9" max="9" width="44" style="5" customWidth="1"/>
@@ -1493,14 +1496,14 @@
     <col min="11" max="11" width="17.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.75" style="1" customWidth="1"/>
     <col min="13" max="13" width="47.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="54.08203125" customWidth="1"/>
+    <col min="14" max="14" width="54.125" customWidth="1"/>
     <col min="15" max="15" width="46.25" customWidth="1"/>
-    <col min="16" max="16" width="24.6640625" customWidth="1"/>
+    <col min="16" max="16" width="24.625" customWidth="1"/>
     <col min="17" max="17" width="24.5" customWidth="1"/>
     <col min="18" max="18" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="26" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" s="26" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B2"/>
       <c r="C2" s="8" t="s">
         <v>11</v>
@@ -1574,7 +1577,7 @@
       <c r="J2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:18" s="26" customFormat="1" ht="117.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" s="26" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
       <c r="C3" s="36" t="s">
         <v>11</v>
       </c>
@@ -1596,7 +1599,7 @@
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
     </row>
-    <row r="4" spans="1:18" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>12</v>
       </c>
@@ -1607,9 +1610,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
     </row>
-    <row r="5" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C5" s="36" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>19</v>
@@ -1631,7 +1634,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="36" t="s">
         <v>15</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="26" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" s="26" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>14</v>
       </c>
@@ -1671,7 +1674,7 @@
       <c r="I7" s="46"/>
       <c r="K7" s="27"/>
     </row>
-    <row r="8" spans="1:18" s="26" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" s="26" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>12</v>
       </c>
@@ -1682,7 +1685,7 @@
       <c r="I8" s="46"/>
       <c r="K8" s="27"/>
     </row>
-    <row r="9" spans="1:18" s="26" customFormat="1" ht="70.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" s="26" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
       <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="26" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" s="26" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>14</v>
       </c>
@@ -1721,7 +1724,7 @@
       <c r="I10" s="46"/>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" spans="1:18" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>12</v>
       </c>
@@ -1733,7 +1736,7 @@
       <c r="I11" s="47"/>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" spans="1:18" s="26" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" s="26" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
       <c r="C12" s="36" t="s">
         <v>13</v>
@@ -1758,7 +1761,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
@@ -1770,7 +1773,7 @@
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
     </row>
-    <row r="14" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
       <c r="C14" s="44" t="s">
         <v>11</v>
@@ -1790,7 +1793,7 @@
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
     </row>
-    <row r="15" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="36" t="s">
@@ -1813,7 +1816,7 @@
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="36"/>
@@ -1828,7 +1831,7 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="36"/>
@@ -1843,7 +1846,7 @@
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="36"/>
@@ -1858,7 +1861,7 @@
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="36"/>
@@ -1873,7 +1876,7 @@
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
     </row>
-    <row r="20" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="36"/>
@@ -1888,7 +1891,7 @@
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
     </row>
-    <row r="21" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="36"/>
@@ -1903,7 +1906,7 @@
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
     </row>
-    <row r="22" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="36"/>
@@ -1918,7 +1921,7 @@
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
     </row>
-    <row r="23" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="36"/>
@@ -1933,7 +1936,7 @@
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
     </row>
-    <row r="24" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="36"/>
@@ -1948,7 +1951,7 @@
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
     </row>
-    <row r="25" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="36"/>
@@ -1963,7 +1966,7 @@
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
     </row>
-    <row r="26" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="36"/>
@@ -1978,7 +1981,7 @@
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
     </row>
-    <row r="27" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="36"/>
@@ -2003,18 +2006,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.25" style="11" customWidth="1"/>
     <col min="2" max="2" width="23" style="12" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
@@ -2034,7 +2037,7 @@
       </c>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
@@ -2043,7 +2046,7 @@
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
@@ -2052,7 +2055,7 @@
       </c>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>245</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>250</v>
       </c>
@@ -2094,19 +2097,19 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="51.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="28.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
     <col min="5" max="9" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2125,7 +2128,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -2142,7 +2145,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2159,7 +2162,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2176,7 +2179,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -2193,7 +2196,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2210,7 +2213,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2227,7 +2230,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2244,7 +2247,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I23"/>
     </row>
   </sheetData>
@@ -2283,16 +2286,16 @@
       <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="22.9140625" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -2491,7 +2494,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -2505,7 +2508,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -2561,7 +2564,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -2620,7 +2623,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -2756,7 +2759,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -2773,7 +2776,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2926,7 +2929,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2943,7 +2946,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -3011,7 +3014,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -3147,7 +3150,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -3164,7 +3167,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -3232,7 +3235,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -3334,7 +3337,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -3351,7 +3354,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -3368,7 +3371,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -3436,7 +3439,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>243</v>
       </c>
@@ -3516,12 +3519,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>35</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="170.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -3559,9 +3562,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>40</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -3626,7 +3629,7 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -3636,7 +3639,7 @@
     <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>47</v>
       </c>
@@ -3679,13 +3682,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.375" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>56</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>57</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>59</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>60</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>61</v>
       </c>
@@ -3725,7 +3728,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>62</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>63</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -3763,14 +3766,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3784,14 +3787,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
-    <row r="3" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>67</v>
       </c>
